--- a/DATA_goal/Junction_Flooding_325.xlsx
+++ b/DATA_goal/Junction_Flooding_325.xlsx
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>45006.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45006.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.46</v>
+        <v>34.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.88</v>
+        <v>28.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.47</v>
+        <v>44.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.69</v>
+        <v>186.91</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.56</v>
+        <v>35.65</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.37</v>
+        <v>23.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.07</v>
+        <v>40.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45006.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.6</v>
+        <v>36.01</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.11</v>
+        <v>51.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.28</v>
+        <v>192.75</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.67</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.65</v>
+        <v>46.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45006.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.93</v>
+        <v>39.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.59</v>
+        <v>55.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21</v>
+        <v>209.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4</v>
+        <v>39.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.67</v>
+        <v>26.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.77</v>
+        <v>27.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.08</v>
+        <v>50.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_325.xlsx
+++ b/DATA_goal/Junction_Flooding_325.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45006.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -759,85 +759,85 @@
         <v>45006.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.46</v>
+        <v>15.461</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.39</v>
+        <v>12.386</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.63</v>
+        <v>34.632</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.84</v>
+        <v>28.838</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>12.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.74</v>
+        <v>44.737</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.86</v>
+        <v>19.857</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.099</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.914</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.91</v>
+        <v>14.912</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.745</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.93</v>
+        <v>3.926</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.36</v>
+        <v>12.365</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>18.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.51</v>
+        <v>10.508</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>186.91</v>
+        <v>186.908</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.65</v>
+        <v>35.649</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.6</v>
+        <v>11.597</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.5</v>
+        <v>23.498</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.09</v>
+        <v>13.088</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.583</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.67</v>
+        <v>23.675</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.39</v>
+        <v>10.387</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.05</v>
+        <v>10.049</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>11.44</v>
@@ -849,13 +849,13 @@
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.66</v>
+        <v>40.655</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.07</v>
+        <v>7.067</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.42</v>
+        <v>14.424</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45006.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.22</v>
+        <v>16.215</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.68</v>
+        <v>12.684</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.01</v>
+        <v>36.009</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.83</v>
+        <v>29.834</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.21</v>
+        <v>13.215</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.06</v>
+        <v>51.059</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.45</v>
+        <v>20.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.303000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.1</v>
+        <v>14.104</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>15.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.3</v>
+        <v>15.304</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.09</v>
+        <v>4.087</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.84</v>
+        <v>12.841</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.73</v>
+        <v>18.732</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.86</v>
+        <v>10.863</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.75</v>
+        <v>192.752</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.81</v>
+        <v>36.809</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.99</v>
+        <v>11.991</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.33</v>
+        <v>13.329</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.677</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.67</v>
+        <v>25.672</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.71</v>
+        <v>10.712</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.031</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.53</v>
+        <v>11.527</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.87</v>
+        <v>15.868</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.52</v>
+        <v>46.525</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.15</v>
+        <v>7.151</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.97</v>
+        <v>14.966</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45006.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_325.xlsx
+++ b/DATA_goal/Junction_Flooding_325.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,103 +967,207 @@
         <v>45006.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.8</v>
+        <v>17.798</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.74</v>
+        <v>13.743</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.3</v>
+        <v>39.301</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.5</v>
+        <v>32.503</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.35</v>
+        <v>14.354</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.85</v>
+        <v>55.854</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.19</v>
+        <v>22.193</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.05</v>
+        <v>10.047</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.17</v>
+        <v>15.171</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.28</v>
+        <v>16.285</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.69</v>
+        <v>16.692</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.473</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.38</v>
+        <v>20.384</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.81</v>
+        <v>11.813</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.98</v>
+        <v>209.976</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>39.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.06</v>
+        <v>13.061</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.75</v>
+        <v>26.748</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.38</v>
+        <v>14.384</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.844</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.71</v>
+        <v>27.707</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.639</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.689</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.36</v>
+        <v>12.364</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.08</v>
+        <v>17.083</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.77</v>
+        <v>50.774</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.69</v>
+        <v>7.688</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.32</v>
+        <v>16.322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45006.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>59.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>221.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>53.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_325.xlsx
+++ b/DATA_goal/Junction_Flooding_325.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,207 +967,103 @@
         <v>45006.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.798</v>
+        <v>17.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.743</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.301</v>
+        <v>39.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.503</v>
+        <v>32.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.354</v>
+        <v>14.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.854</v>
+        <v>55.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.193</v>
+        <v>22.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.047</v>
+        <v>10.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.171</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.285</v>
+        <v>16.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.692</v>
+        <v>16.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.473</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.384</v>
+        <v>20.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.813</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.444</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.976</v>
+        <v>209.98</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>39.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.061</v>
+        <v>13.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.748</v>
+        <v>26.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.384</v>
+        <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.707</v>
+        <v>27.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.639</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.689</v>
+        <v>10.69</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.364</v>
+        <v>12.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.083</v>
+        <v>17.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.774</v>
+        <v>50.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.688</v>
+        <v>7.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.322</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45006.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.22</v>
+        <v>16.32</v>
       </c>
     </row>
   </sheetData>
